--- a/data/using/Multiple Factor Analysis.xlsx
+++ b/data/using/Multiple Factor Analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>Term</t>
   </si>
@@ -50,6 +50,24 @@
   </si>
   <si>
     <t>0.0417*</t>
+  </si>
+  <si>
+    <t>STXR</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Computer Gaming</t>
+  </si>
+  <si>
+    <t>Education</t>
   </si>
 </sst>
 </file>
@@ -427,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:O19"/>
+  <dimension ref="C3:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -892,6 +910,210 @@
         <v>0.2374</v>
       </c>
     </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.53476100000000004</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.30214099999999999</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2">
+        <v>20.340620000000001</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2">
+        <v>42.736840000000001</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2">
+        <v>19</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="2">
+        <v>-7.3708</v>
+      </c>
+      <c r="F27" s="2">
+        <v>18.497029999999999</v>
+      </c>
+      <c r="G27" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.69730000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="2">
+        <v>13.263436</v>
+      </c>
+      <c r="F28" s="2">
+        <v>8.5733510000000006</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.14779999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="2">
+        <v>7.8414519</v>
+      </c>
+      <c r="F29" s="2">
+        <v>5.5331919999999997</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1.42</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.18190000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="2">
+        <v>18.084289999999999</v>
+      </c>
+      <c r="F30" s="2">
+        <v>10.366379999999999</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1.74</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.1066</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="2">
+        <v>2.8011089</v>
+      </c>
+      <c r="F31" s="2">
+        <v>11.01336</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.80349999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="2">
+        <v>-0.106707</v>
+      </c>
+      <c r="F32" s="2">
+        <v>4.2739380000000002</v>
+      </c>
+      <c r="G32" s="2">
+        <v>-0.02</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.98050000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="2">
+        <v>-2.2245349999999999</v>
+      </c>
+      <c r="F33" s="2">
+        <v>3.62785</v>
+      </c>
+      <c r="G33" s="2">
+        <v>-0.61</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.55120000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
